--- a/data/trans_dic/P7_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,91; 21,17</t>
+          <t>12,08; 21,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,24; 29,94</t>
+          <t>19,33; 30,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,05; 30,55</t>
+          <t>20,59; 30,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,96; 23,27</t>
+          <t>14,0; 23,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,2; 39,68</t>
+          <t>27,84; 39,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,96; 37,67</t>
+          <t>28,96; 37,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,99; 20,43</t>
+          <t>13,85; 20,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,92; 32,79</t>
+          <t>25,06; 33,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,06; 32,55</t>
+          <t>25,97; 32,59</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,22; 21,39</t>
+          <t>14,23; 21,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,01; 21,19</t>
+          <t>13,9; 20,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,48; 17,92</t>
+          <t>11,59; 17,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,16; 19,67</t>
+          <t>11,84; 19,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,29; 36,45</t>
+          <t>28,57; 36,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,12; 35,44</t>
+          <t>27,28; 35,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,79; 26,64</t>
+          <t>18,69; 26,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,94; 21,36</t>
+          <t>15,76; 21,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,44; 27,63</t>
+          <t>22,16; 27,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,59; 27,5</t>
+          <t>21,89; 27,59</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,08; 21,09</t>
+          <t>16,29; 21,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,06; 19,81</t>
+          <t>14,8; 19,33</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,76; 18,8</t>
+          <t>10,89; 18,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,11; 20,76</t>
+          <t>12,1; 20,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,59; 16,48</t>
+          <t>10,06; 17,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,79; 24,16</t>
+          <t>15,61; 23,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,49; 37,3</t>
+          <t>27,64; 37,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,19; 28,83</t>
+          <t>18,87; 28,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,86; 21,56</t>
+          <t>12,7; 21,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,01; 26,2</t>
+          <t>19,14; 26,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,62; 27,25</t>
+          <t>20,18; 27,12</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,06; 23,33</t>
+          <t>16,51; 22,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,48; 18,37</t>
+          <t>12,35; 18,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,44; 23,6</t>
+          <t>18,51; 23,65</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,42; 15,05</t>
+          <t>8,31; 15,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,65; 25,46</t>
+          <t>18,65; 25,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,72; 23,28</t>
+          <t>14,95; 23,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,92; 25,52</t>
+          <t>16,15; 26,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,2; 32,42</t>
+          <t>22,93; 31,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,94; 40,65</t>
+          <t>32,79; 40,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,29; 36,4</t>
+          <t>26,13; 35,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,02; 29,69</t>
+          <t>21,03; 29,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,66; 22,43</t>
+          <t>16,78; 22,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,75; 31,82</t>
+          <t>26,58; 31,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,59; 27,93</t>
+          <t>21,95; 28,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,03; 26,6</t>
+          <t>20,18; 26,47</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,9; 26,44</t>
+          <t>15,92; 26,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,47; 22,04</t>
+          <t>11,85; 22,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,91; 26,96</t>
+          <t>16,03; 26,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 14,2</t>
+          <t>7,02; 14,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,92; 42,42</t>
+          <t>29,2; 42,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,44; 37,23</t>
+          <t>25,17; 37,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,14; 32,8</t>
+          <t>20,75; 32,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,88; 20,59</t>
+          <t>11,94; 20,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,85; 33,14</t>
+          <t>23,99; 32,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,78; 28,03</t>
+          <t>19,94; 27,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19,99; 27,76</t>
+          <t>20,3; 28,95</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,41; 16,73</t>
+          <t>11,33; 16,94</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,38; 17,91</t>
+          <t>9,1; 17,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,54; 24,17</t>
+          <t>14,67; 24,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,33; 22,28</t>
+          <t>13,34; 22,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,23; 27,76</t>
+          <t>18,84; 27,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,61; 39,02</t>
+          <t>27,31; 38,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,02; 32,56</t>
+          <t>21,07; 32,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,78; 30,02</t>
+          <t>18,31; 29,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,57; 31,95</t>
+          <t>23,58; 31,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,04; 26,71</t>
+          <t>19,64; 26,69</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,65; 26,7</t>
+          <t>19,66; 27,29</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,99; 24,35</t>
+          <t>17,52; 24,74</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,49; 28,3</t>
+          <t>22,68; 27,98</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,03; 17,13</t>
+          <t>11,45; 17,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,03; 17,7</t>
+          <t>12,05; 17,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,51; 17,19</t>
+          <t>11,64; 17,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,47; 18,1</t>
+          <t>12,45; 18,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,87; 31,92</t>
+          <t>24,91; 32,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,0; 26,56</t>
+          <t>20,14; 26,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,43; 27,77</t>
+          <t>20,45; 27,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,5; 25,14</t>
+          <t>12,69; 25,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,94; 23,5</t>
+          <t>18,85; 23,56</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>16,92; 21,31</t>
+          <t>17,03; 21,59</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,04; 21,62</t>
+          <t>16,92; 21,48</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,4; 20,82</t>
+          <t>13,82; 20,89</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,02; 20,76</t>
+          <t>14,86; 20,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,2; 15,37</t>
+          <t>10,48; 15,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,89; 14,38</t>
+          <t>9,91; 14,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,33; 19,65</t>
+          <t>13,81; 20,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,4; 28,97</t>
+          <t>22,51; 28,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,79; 21,56</t>
+          <t>16,29; 21,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,64; 23,57</t>
+          <t>17,58; 23,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>23,12; 28,44</t>
+          <t>23,15; 28,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19,65; 23,95</t>
+          <t>19,52; 23,93</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13,78; 17,66</t>
+          <t>14,04; 17,81</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14,59; 18,38</t>
+          <t>14,35; 18,44</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>19,0; 23,46</t>
+          <t>19,09; 23,24</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,38; 16,93</t>
+          <t>14,49; 17,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15,33; 17,99</t>
+          <t>15,35; 18,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,31; 16,93</t>
+          <t>14,48; 16,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,43; 19,2</t>
+          <t>16,23; 19,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>27,11; 30,3</t>
+          <t>27,14; 30,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>25,24; 28,32</t>
+          <t>25,17; 28,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>22,37; 25,34</t>
+          <t>22,31; 25,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>20,9; 24,72</t>
+          <t>20,77; 24,8</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>21,18; 23,25</t>
+          <t>21,36; 23,4</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>20,78; 22,83</t>
+          <t>20,72; 22,83</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>18,92; 20,98</t>
+          <t>18,9; 20,89</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>19,45; 21,7</t>
+          <t>19,49; 21,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P7_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,08; 21,23</t>
+          <t>12,2; 21,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,33; 30,07</t>
+          <t>19,33; 29,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,0; 23,33</t>
+          <t>14,0; 23,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,84; 39,29</t>
+          <t>27,72; 39,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,85; 20,57</t>
+          <t>13,88; 21,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,06; 33,1</t>
+          <t>25,32; 32,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,23; 21,06</t>
+          <t>14,04; 20,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,9; 20,9</t>
+          <t>13,96; 21,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,59; 17,75</t>
+          <t>11,59; 18,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,57; 36,53</t>
+          <t>28,21; 35,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,28; 35,43</t>
+          <t>26,49; 35,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,69; 26,24</t>
+          <t>18,59; 26,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,16; 27,8</t>
+          <t>22,26; 27,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,89; 27,59</t>
+          <t>21,82; 27,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,29; 21,21</t>
+          <t>16,12; 21,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,89; 18,9</t>
+          <t>11,11; 18,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,1; 20,88</t>
+          <t>11,92; 20,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,06; 17,3</t>
+          <t>9,6; 16,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,64; 37,44</t>
+          <t>27,71; 37,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,87; 28,45</t>
+          <t>19,2; 28,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,7; 21,35</t>
+          <t>12,81; 21,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,18; 27,12</t>
+          <t>20,66; 27,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,51; 22,76</t>
+          <t>16,75; 23,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,35; 18,44</t>
+          <t>12,14; 17,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 15,08</t>
+          <t>8,39; 15,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,65; 25,73</t>
+          <t>18,47; 25,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,95; 23,25</t>
+          <t>14,88; 23,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,93; 31,98</t>
+          <t>23,0; 31,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,79; 40,26</t>
+          <t>32,95; 40,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,13; 35,91</t>
+          <t>25,93; 35,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,78; 22,54</t>
+          <t>16,81; 22,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,58; 31,89</t>
+          <t>26,86; 31,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,95; 28,44</t>
+          <t>21,64; 28,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,92; 26,61</t>
+          <t>16,11; 26,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,85; 22,37</t>
+          <t>11,6; 22,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,03; 26,77</t>
+          <t>15,73; 27,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,2; 42,76</t>
+          <t>29,05; 42,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,17; 37,22</t>
+          <t>24,51; 37,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,75; 32,82</t>
+          <t>21,35; 33,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,99; 32,43</t>
+          <t>24,09; 33,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,94; 27,91</t>
+          <t>19,85; 28,36</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20,3; 28,95</t>
+          <t>20,52; 28,6</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,1; 17,15</t>
+          <t>9,36; 17,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,67; 24,19</t>
+          <t>14,96; 24,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,34; 22,67</t>
+          <t>13,1; 22,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,31; 38,97</t>
+          <t>27,82; 39,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,07; 32,09</t>
+          <t>21,55; 32,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,31; 29,44</t>
+          <t>18,73; 29,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,64; 26,69</t>
+          <t>19,89; 26,92</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,66; 27,29</t>
+          <t>19,39; 26,9</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,52; 24,74</t>
+          <t>17,27; 24,66</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,45; 17,24</t>
+          <t>11,21; 16,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,05; 17,94</t>
+          <t>12,22; 18,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,64; 17,01</t>
+          <t>11,55; 17,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,91; 32,27</t>
+          <t>24,93; 31,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,14; 26,46</t>
+          <t>20,27; 26,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,45; 27,62</t>
+          <t>20,59; 27,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,85; 23,56</t>
+          <t>19,04; 23,52</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,03; 21,59</t>
+          <t>17,22; 21,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>16,92; 21,48</t>
+          <t>17,03; 21,75</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,86; 20,47</t>
+          <t>15,02; 20,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,48; 15,42</t>
+          <t>10,36; 15,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,91; 14,66</t>
+          <t>9,87; 14,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,51; 28,62</t>
+          <t>22,37; 28,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,29; 21,72</t>
+          <t>16,05; 21,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,58; 23,42</t>
+          <t>17,62; 23,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19,52; 23,93</t>
+          <t>19,68; 23,94</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14,04; 17,81</t>
+          <t>14,09; 17,7</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14,35; 18,44</t>
+          <t>14,46; 18,51</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,49; 17,01</t>
+          <t>14,63; 17,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15,35; 18,06</t>
+          <t>15,29; 18,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,48; 16,88</t>
+          <t>14,38; 16,86</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>27,14; 30,26</t>
+          <t>27,13; 30,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>25,17; 28,22</t>
+          <t>25,27; 28,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>22,31; 25,35</t>
+          <t>22,37; 25,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>21,36; 23,4</t>
+          <t>21,33; 23,35</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>20,72; 22,83</t>
+          <t>20,79; 22,69</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>18,9; 20,89</t>
+          <t>18,99; 20,95</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P7_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,2; 21,15</t>
+          <t>11,91; 21,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,33; 29,39</t>
+          <t>19,24; 29,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,59; 30,28</t>
+          <t>20,05; 30,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,0; 23,4</t>
+          <t>13,96; 23,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,72; 39,12</t>
+          <t>28,2; 39,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,96; 37,35</t>
+          <t>28,96; 37,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,88; 21,08</t>
+          <t>13,99; 20,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,32; 32,93</t>
+          <t>24,92; 32,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,97; 32,59</t>
+          <t>26,06; 32,55</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,04; 20,88</t>
+          <t>14,22; 21,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,96; 21,1</t>
+          <t>14,01; 21,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,59; 18,04</t>
+          <t>11,48; 17,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,84; 19,34</t>
+          <t>12,16; 19,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,21; 35,92</t>
+          <t>28,29; 36,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,49; 35,25</t>
+          <t>27,12; 35,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,59; 26,31</t>
+          <t>18,79; 26,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,76; 21,54</t>
+          <t>15,94; 21,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,26; 27,64</t>
+          <t>22,44; 27,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,82; 27,34</t>
+          <t>21,59; 27,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,12; 21,14</t>
+          <t>16,08; 21,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,8; 19,33</t>
+          <t>15,06; 19,81</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,11; 18,87</t>
+          <t>10,76; 18,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,92; 20,48</t>
+          <t>12,11; 20,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,6; 16,67</t>
+          <t>9,59; 16,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,61; 23,96</t>
+          <t>15,79; 24,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,71; 37,58</t>
+          <t>27,49; 37,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,2; 28,65</t>
+          <t>19,19; 28,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,81; 21,79</t>
+          <t>12,86; 21,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,14; 26,07</t>
+          <t>19,01; 26,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,66; 27,32</t>
+          <t>20,62; 27,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,75; 23,31</t>
+          <t>17,06; 23,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,14; 17,79</t>
+          <t>12,48; 18,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,51; 23,65</t>
+          <t>18,44; 23,6</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,39; 15,46</t>
+          <t>8,42; 15,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,47; 25,35</t>
+          <t>18,65; 25,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,88; 23,28</t>
+          <t>14,72; 23,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,15; 26,19</t>
+          <t>15,92; 25,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,0; 31,88</t>
+          <t>23,2; 32,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,95; 40,41</t>
+          <t>32,94; 40,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,93; 35,94</t>
+          <t>26,29; 36,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,03; 29,79</t>
+          <t>21,02; 29,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,81; 22,44</t>
+          <t>16,66; 22,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,86; 31,97</t>
+          <t>26,75; 31,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,64; 28,08</t>
+          <t>21,59; 27,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,18; 26,47</t>
+          <t>20,03; 26,6</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,11; 26,71</t>
+          <t>15,9; 26,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,6; 22,36</t>
+          <t>11,47; 22,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,73; 27,34</t>
+          <t>15,91; 26,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,02; 14,06</t>
+          <t>7,16; 14,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,05; 42,75</t>
+          <t>28,92; 42,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,51; 37,56</t>
+          <t>25,44; 37,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,35; 33,51</t>
+          <t>21,14; 32,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,94; 20,85</t>
+          <t>11,88; 20,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,09; 33,51</t>
+          <t>23,85; 33,14</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,85; 28,36</t>
+          <t>19,78; 28,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20,52; 28,6</t>
+          <t>19,99; 27,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,33; 16,94</t>
+          <t>11,41; 16,73</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,36; 17,41</t>
+          <t>9,38; 17,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,96; 24,07</t>
+          <t>14,54; 24,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,1; 22,4</t>
+          <t>13,33; 22,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,84; 27,83</t>
+          <t>19,23; 27,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,82; 39,03</t>
+          <t>27,61; 39,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,55; 32,31</t>
+          <t>22,02; 32,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,73; 29,59</t>
+          <t>18,78; 30,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,58; 31,39</t>
+          <t>23,57; 31,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,89; 26,92</t>
+          <t>20,04; 26,71</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,39; 26,9</t>
+          <t>19,65; 26,7</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,27; 24,66</t>
+          <t>16,99; 24,35</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,68; 27,98</t>
+          <t>22,49; 28,3</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,21; 16,77</t>
+          <t>11,03; 17,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,22; 18,05</t>
+          <t>12,03; 17,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,55; 17,69</t>
+          <t>11,51; 17,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,45; 18,17</t>
+          <t>12,47; 18,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,93; 31,95</t>
+          <t>24,87; 31,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,27; 26,84</t>
+          <t>20,0; 26,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,59; 27,47</t>
+          <t>20,43; 27,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,69; 25,16</t>
+          <t>12,5; 25,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,04; 23,52</t>
+          <t>18,94; 23,5</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,22; 21,86</t>
+          <t>16,92; 21,31</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,03; 21,75</t>
+          <t>17,04; 21,62</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,82; 20,89</t>
+          <t>13,4; 20,82</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,02; 20,55</t>
+          <t>15,02; 20,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,36; 15,42</t>
+          <t>10,2; 15,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,87; 14,43</t>
+          <t>9,89; 14,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,81; 20,23</t>
+          <t>13,33; 19,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,37; 28,74</t>
+          <t>22,4; 28,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,05; 21,67</t>
+          <t>15,79; 21,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,62; 23,59</t>
+          <t>17,64; 23,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>23,15; 28,53</t>
+          <t>23,12; 28,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19,68; 23,94</t>
+          <t>19,65; 23,95</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14,09; 17,7</t>
+          <t>13,78; 17,66</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14,46; 18,51</t>
+          <t>14,59; 18,38</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>19,09; 23,24</t>
+          <t>19,0; 23,46</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,63; 17,09</t>
+          <t>14,38; 16,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15,29; 18,01</t>
+          <t>15,33; 17,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,38; 16,86</t>
+          <t>14,31; 16,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,23; 19,09</t>
+          <t>16,43; 19,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>27,13; 30,22</t>
+          <t>27,11; 30,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>25,27; 28,17</t>
+          <t>25,24; 28,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>22,37; 25,28</t>
+          <t>22,37; 25,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>20,77; 24,8</t>
+          <t>20,9; 24,72</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>21,33; 23,35</t>
+          <t>21,18; 23,25</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>20,79; 22,69</t>
+          <t>20,78; 22,83</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>18,99; 20,95</t>
+          <t>18,92; 20,98</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>19,49; 21,8</t>
+          <t>19,45; 21,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P7_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,79%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>33,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,34%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,35%</t>
+          <t>28,19%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,8; 30,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,05; 30,55</t>
+          <t>18,33; 28,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,26; 46,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,96; 37,67</t>
+          <t>28,83; 38,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,01; 35,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,06; 32,55</t>
+          <t>24,85; 31,73</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>16,68%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,16; 19,67</t>
+          <t>11,7; 19,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,94; 21,36</t>
+          <t>15,79; 21,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,06; 19,81</t>
+          <t>14,69; 19,54</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>20,67%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,79; 24,16</t>
+          <t>15,35; 23,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,01; 26,2</t>
+          <t>18,88; 25,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,44; 23,6</t>
+          <t>18,11; 23,19</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>20,66%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,65; 25,46</t>
+          <t>15,68; 24,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,92; 25,52</t>
+          <t>15,68; 25,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,94; 40,65</t>
+          <t>29,1; 38,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,02; 29,69</t>
+          <t>11,93; 26,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,75; 31,82</t>
+          <t>23,72; 30,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,03; 26,6</t>
+          <t>14,76; 24,46</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>13,33%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 14,2</t>
+          <t>7,17; 14,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,88; 20,59</t>
+          <t>8,54; 20,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,41; 16,73</t>
+          <t>9,1; 16,29</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>25,05%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,23; 27,76</t>
+          <t>19,05; 27,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,57; 31,95</t>
+          <t>23,54; 31,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,49; 28,3</t>
+          <t>22,34; 28,04</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>16,74%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,47; 18,1</t>
+          <t>12,03; 17,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,5; 25,14</t>
+          <t>8,26; 24,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,4; 20,82</t>
+          <t>9,93; 20,15</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>18,9%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,33; 19,65</t>
+          <t>6,03; 18,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>23,12; 28,44</t>
+          <t>23,4; 28,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>19,0; 23,46</t>
+          <t>11,91; 22,87</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>19,39%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,43; 19,2</t>
+          <t>13,19; 18,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>20,9; 24,72</t>
+          <t>17,48; 24,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>19,45; 21,7</t>
+          <t>16,75; 20,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P7_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,91; 21,17</t>
+          <t>11,9; 20,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,8; 30,17</t>
+          <t>19,85; 30,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,24; 29,94</t>
+          <t>19,34; 29,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,33; 28,75</t>
+          <t>18,88; 29,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,96; 23,27</t>
+          <t>13,96; 23,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,26; 46,32</t>
+          <t>34,08; 46,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,2; 39,68</t>
+          <t>28,03; 39,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,83; 38,18</t>
+          <t>28,71; 38,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,99; 20,43</t>
+          <t>14,09; 20,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,01; 35,97</t>
+          <t>28,81; 36,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,92; 32,79</t>
+          <t>25,49; 32,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,85; 31,73</t>
+          <t>24,81; 31,98</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,22; 21,39</t>
+          <t>14,1; 21,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,01; 21,19</t>
+          <t>14,17; 21,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,48; 17,92</t>
+          <t>11,51; 18,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,7; 19,29</t>
+          <t>11,71; 19,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,29; 36,45</t>
+          <t>27,77; 36,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,12; 35,44</t>
+          <t>27,09; 35,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,79; 26,64</t>
+          <t>18,75; 26,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,79; 21,19</t>
+          <t>15,58; 21,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,44; 27,63</t>
+          <t>22,16; 27,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,59; 27,5</t>
+          <t>21,41; 27,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,08; 21,09</t>
+          <t>16,09; 21,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,69; 19,54</t>
+          <t>14,36; 19,24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,76; 18,8</t>
+          <t>10,81; 18,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,11; 20,76</t>
+          <t>12,07; 20,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,59; 16,48</t>
+          <t>9,92; 16,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,35; 23,57</t>
+          <t>15,48; 23,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,49; 37,3</t>
+          <t>27,26; 37,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,19; 28,83</t>
+          <t>18,89; 28,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,86; 21,56</t>
+          <t>12,42; 21,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,88; 25,99</t>
+          <t>19,03; 26,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,62; 27,25</t>
+          <t>20,34; 27,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,06; 23,33</t>
+          <t>16,79; 23,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,48; 18,37</t>
+          <t>12,39; 17,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,11; 23,19</t>
+          <t>18,36; 23,66</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,42; 15,05</t>
+          <t>8,31; 15,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,68; 24,18</t>
+          <t>15,41; 24,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,72; 23,28</t>
+          <t>14,86; 23,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,68; 25,15</t>
+          <t>15,02; 25,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,2; 32,42</t>
+          <t>23,0; 31,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,1; 38,67</t>
+          <t>29,27; 38,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,29; 36,4</t>
+          <t>25,96; 35,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,93; 26,78</t>
+          <t>12,63; 27,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,66; 22,43</t>
+          <t>16,76; 22,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,72; 30,37</t>
+          <t>23,73; 30,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,59; 27,93</t>
+          <t>21,82; 28,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,76; 24,46</t>
+          <t>15,29; 24,87</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,9; 26,44</t>
+          <t>15,55; 27,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,47; 22,04</t>
+          <t>11,73; 22,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,91; 26,96</t>
+          <t>15,93; 27,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,17; 14,24</t>
+          <t>7,36; 14,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,92; 42,42</t>
+          <t>29,28; 42,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,44; 37,23</t>
+          <t>25,26; 37,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,14; 32,8</t>
+          <t>21,04; 32,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,54; 20,18</t>
+          <t>8,22; 19,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,85; 33,14</t>
+          <t>24,31; 33,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,78; 28,03</t>
+          <t>19,92; 28,23</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19,99; 27,76</t>
+          <t>19,94; 28,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,1; 16,29</t>
+          <t>8,95; 15,96</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,38; 17,91</t>
+          <t>9,85; 17,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,54; 24,17</t>
+          <t>14,69; 24,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,33; 22,28</t>
+          <t>13,22; 22,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,05; 27,63</t>
+          <t>19,06; 27,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,61; 39,02</t>
+          <t>27,36; 38,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,02; 32,56</t>
+          <t>21,85; 32,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,78; 30,02</t>
+          <t>18,42; 30,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,54; 31,92</t>
+          <t>23,79; 31,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,04; 26,71</t>
+          <t>19,84; 27,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,65; 26,7</t>
+          <t>19,64; 26,72</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,99; 24,35</t>
+          <t>17,41; 24,53</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,34; 28,04</t>
+          <t>21,92; 27,85</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,03; 17,13</t>
+          <t>11,46; 17,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,03; 17,7</t>
+          <t>12,36; 17,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,51; 17,19</t>
+          <t>11,69; 17,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,03; 17,57</t>
+          <t>12,09; 17,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,87; 31,92</t>
+          <t>25,24; 32,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,0; 26,56</t>
+          <t>19,88; 26,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,43; 27,77</t>
+          <t>20,27; 27,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,26; 24,93</t>
+          <t>9,11; 24,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,94; 23,5</t>
+          <t>18,73; 23,52</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>16,92; 21,31</t>
+          <t>16,97; 21,38</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,04; 21,62</t>
+          <t>16,92; 21,27</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,93; 20,15</t>
+          <t>10,07; 19,9</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,02; 20,76</t>
+          <t>15,2; 20,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,2; 15,37</t>
+          <t>10,47; 15,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,89; 14,38</t>
+          <t>10,01; 14,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,03; 18,8</t>
+          <t>5,65; 18,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,4; 28,97</t>
+          <t>22,23; 28,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,79; 21,56</t>
+          <t>16,19; 21,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,64; 23,57</t>
+          <t>17,25; 23,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>23,4; 28,65</t>
+          <t>23,55; 28,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19,65; 23,95</t>
+          <t>19,49; 23,91</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13,78; 17,66</t>
+          <t>13,94; 17,68</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14,59; 18,38</t>
+          <t>14,63; 18,39</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,91; 22,87</t>
+          <t>11,59; 22,81</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,38; 16,93</t>
+          <t>14,44; 16,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15,33; 17,99</t>
+          <t>15,33; 18,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,31; 16,93</t>
+          <t>14,37; 16,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,19; 18,26</t>
+          <t>12,81; 18,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>27,11; 30,3</t>
+          <t>26,94; 30,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>25,24; 28,32</t>
+          <t>25,08; 28,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>22,37; 25,34</t>
+          <t>22,34; 25,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17,48; 24,05</t>
+          <t>17,85; 24,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>21,18; 23,25</t>
+          <t>21,21; 23,28</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>20,78; 22,83</t>
+          <t>20,7; 22,78</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>18,92; 20,98</t>
+          <t>18,94; 20,91</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>16,75; 20,78</t>
+          <t>17,03; 20,9</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud general regular o mala</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>44582</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>73072</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>71483</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>73689</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>47486</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>115120</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>96408</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>95730</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>92068</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>188192</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>167891</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>169419</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>32496; 56934</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>58516; 90235</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>56801; 87521</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>58791; 90363</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>36423; 62184</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>97880; 132545</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>80637; 114104</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>83144; 111759</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>75226; 111605</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>167649; 211944</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>148205; 190576</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>149133; 192208</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>85659</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>88108</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>73181</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>77428</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>162171</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>163429</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>117297</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>94976</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>247830</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>251536</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>190477</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>172404</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>69390; 104666</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>71627; 108365</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>57827; 90860</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>60680; 98626</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>139944; 183170</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>141869; 185753</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>98066; 137078</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>80237; 111304</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>220654; 276279</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>220372; 280800</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>165077; 217815</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>148396; 198834</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>46436</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>51625</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>41267</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>59976</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>109060</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>80300</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>56047</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>77514</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>155496</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>131925</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>97313</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>137490</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>34479; 58128</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>39127; 66404</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>31593; 53869</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>48936; 74026</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>91438; 125596</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>64232; 96977</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>41763; 71950</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>66450; 90825</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>133100; 179317</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>111507; 155250</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>81132; 117513</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>122146; 157366</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>40375</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>73065</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>69128</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>62699</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>101919</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>131652</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>118691</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>100171</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>142293</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>204717</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>187819</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>162869</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>29811; 54671</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>57636; 90784</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>54811; 84976</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>46937; 78455</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>85430; 118102</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>113828; 150992</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>99991; 136581</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>60098; 130347</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>122389; 164880</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>181045; 229299</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>164520; 212132</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>120500; 196050</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>42656</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>34922</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>44236</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18428</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>74138</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>68083</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>58478</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>39812</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>116794</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>103005</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>102714</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>58239</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>31614; 54922</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>24948; 48079</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>33491; 56849</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>13151; 25571</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>60801; 87936</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>55480; 82437</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>45987; 71932</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>21222; 51129</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>99905; 137093</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>86092; 122033</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>85483; 121442</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>39094; 69731</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>35343</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>52360</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>45729</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>61540</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>92123</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>75088</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>64816</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>70419</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>127467</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>127448</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>110545</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>131959</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>26685; 46703</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>40248; 65765</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>34659; 58536</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>51402; 74669</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>76103; 107698</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>61200; 89843</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>50119; 82016</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>61161; 82097</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>108935; 148762</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>108796; 148044</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>92985; 131013</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>115476; 146688</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>85997</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>97666</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>93164</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>92062</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>181281</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>160821</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>164546</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>154662</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>267278</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>258487</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>257709</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>246724</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>70454; 104875</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>81043; 117738</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>76643; 113379</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>75457; 111532</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>161103; 205755</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>137575; 184466</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>139915; 187653</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>77361; 210200</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>234749; 294758</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>228646; 288152</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>227682; 286262</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>148341; 293164</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>131359</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>99221</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>93818</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>124503</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>199535</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>153850</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>168834</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>186640</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>330894</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>253071</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>262652</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>311143</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>113057; 152993</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>81556; 121378</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>77835; 112562</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>52458; 176370</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>174181; 225078</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>133027; 177830</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>142478; 193456</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>168993; 205725</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>297613; 365245</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>223238; 283041</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>234608; 294929</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>190840; 375534</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>878</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1537</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1448</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1258</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2258</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>512408</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>570039</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>532005</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>570325</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>967712</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>948343</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>845115</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>819922</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1480120</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1518382</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1377120</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1390247</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>473016; 553293</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>524226; 619743</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>486983; 574639</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>443052; 631334</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>910198; 1020177</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>891178; 1002317</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>790681; 899567</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>662368; 891380</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1411771; 1549058</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1443221; 1588498</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1312133; 1448582</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1221613; 1499044</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>